--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9A7D54-35E2-4A03-AF60-A9DD6105B72F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934F2EF-DB92-4AD4-A6D0-F2DC5DA00D28}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
-  <si>
-    <t>dP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>dT</t>
   </si>
@@ -40,6 +37,24 @@
   </si>
   <si>
     <t>atmPa</t>
+  </si>
+  <si>
+    <t>dP, атм</t>
+  </si>
+  <si>
+    <t>dP, Па</t>
+  </si>
+  <si>
+    <t>U(P), мкВ</t>
+  </si>
+  <si>
+    <t>k24</t>
+  </si>
+  <si>
+    <t>k50</t>
+  </si>
+  <si>
+    <t>k70</t>
   </si>
 </sst>
 </file>
@@ -73,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,16 +96,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -405,157 +514,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068A1463-733B-43B5-A257-228586368D6E}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="E1" s="3"/>
+      <c r="F1" s="1">
         <v>50</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2">
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1">
         <v>70</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
+        <f>A3*$B$10</f>
+        <v>401826.64999999997</v>
+      </c>
+      <c r="D3" s="8">
         <f>B3-$B$8</f>
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3.51</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>0.121</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C8" si="0">A4*$B$10</f>
+        <v>344002.815</v>
+      </c>
+      <c r="D4" s="8">
         <f>B4-$B$8</f>
         <v>0.11599999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2.7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>264617.55</v>
+      </c>
+      <c r="D5" s="8">
         <f>B5-$B$8</f>
         <v>7.909999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>196013</v>
+      </c>
+      <c r="D6" s="8">
         <f>B6-$B$8</f>
         <v>5.2299999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>98006.5</v>
+      </c>
+      <c r="D7" s="8">
         <f>B7-$B$8</f>
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
         <f>B8-$B$8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>98006.5</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934F2EF-DB92-4AD4-A6D0-F2DC5DA00D28}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF1F87-7DE4-4D28-878C-D78B51E53BE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,17 +165,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -199,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +506,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,17 +603,46 @@
         <f>B3-$B$8</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="E3" s="9">
+        <f>D3/$B$11</f>
+        <v>3.3088235294117651E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <f>F3*$B$10</f>
+        <v>392026</v>
+      </c>
+      <c r="I3" s="8">
+        <f>G3-$G$8</f>
+        <v>0.10750000000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <f>I3/$B$12</f>
+        <v>2.5058275058275062E-3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>4</v>
+      </c>
+      <c r="L3" s="8">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <f>K3*$B$10</f>
+        <v>392026</v>
+      </c>
+      <c r="N3" s="8">
+        <f>L3-$L$8</f>
+        <v>8.7100000000000011E-2</v>
+      </c>
+      <c r="O3" s="9">
+        <f>N3/$B$13</f>
+        <v>1.957303370786517E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -641,17 +659,46 @@
         <f>B4-$B$8</f>
         <v>0.11599999999999999</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E8" si="1">D4/$B$11</f>
+        <v>2.8431372549019606E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1052</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H8" si="2">F4*$B$10</f>
+        <v>343022.75</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I8" si="3">G4-$G$8</f>
+        <v>9.5700000000000007E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J8" si="4">I4/$B$12</f>
+        <v>2.230769230769231E-3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="L4" s="8">
+        <v>8.72E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:M8" si="5">K4*$B$10</f>
+        <v>343022.75</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N8" si="6">L4-$L$8</f>
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O8" si="7">N4/$B$13</f>
+        <v>1.7348314606741575E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -668,17 +715,46 @@
         <f>B5-$B$8</f>
         <v>7.909999999999999E-2</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9387254901960783E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="2"/>
+        <v>264617.55</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
+        <v>6.8600000000000008E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="4"/>
+        <v>1.5990675990675994E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6.59E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="5"/>
+        <v>264617.55</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="6"/>
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2561797752808988E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -695,17 +771,46 @@
         <f>B6-$B$8</f>
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2818627450980392E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5.21E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>196013</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="4"/>
+        <v>9.9300699300699309E-4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="5"/>
+        <v>196013</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="6"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="7"/>
+        <v>6.9662921348314602E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -722,17 +827,46 @@
         <f>B7-$B$8</f>
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1715686274509808E-4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>98006.5</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="4"/>
+        <v>3.0303030303030303E-4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.89E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="5"/>
+        <v>98006.5</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="6"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -749,17 +883,46 @@
         <f>B8-$B$8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -773,15 +936,26 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>40.799999999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12">
+        <f>(42.5+43.3)/2</f>
+        <v>42.9</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
+      </c>
+      <c r="B13">
+        <f>(44.1+44.9)/2</f>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF1F87-7DE4-4D28-878C-D78B51E53BE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A9B0C-F53C-4616-A77F-BF0DB6CB8F43}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>dT</t>
   </si>
@@ -204,6 +204,934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3088235294117649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8431372549019605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9387254901960784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2818627450980393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51715686274509809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5616-4073-8260-F2404FFDAE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456222128"/>
+        <c:axId val="456156128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456222128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456156128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456156128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456222128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D5568A-00CB-458E-AD7E-164A7757F95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068A1463-733B-43B5-A257-228586368D6E}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,12 +1528,12 @@
         <v>401826.64999999997</v>
       </c>
       <c r="D3" s="8">
-        <f>B3-$B$8</f>
-        <v>0.13500000000000001</v>
+        <f>(B3-$B$8)*$A$14</f>
+        <v>135</v>
       </c>
       <c r="E3" s="9">
         <f>D3/$B$11</f>
-        <v>3.3088235294117651E-3</v>
+        <v>3.3088235294117649</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
@@ -618,12 +1546,12 @@
         <v>392026</v>
       </c>
       <c r="I3" s="8">
-        <f>G3-$G$8</f>
-        <v>0.10750000000000001</v>
+        <f>(G3-$G$8)*$A$14</f>
+        <v>107.50000000000001</v>
       </c>
       <c r="J3" s="9">
         <f>I3/$B$12</f>
-        <v>2.5058275058275062E-3</v>
+        <v>2.5058275058275061</v>
       </c>
       <c r="K3" s="7">
         <v>4</v>
@@ -636,12 +1564,12 @@
         <v>392026</v>
       </c>
       <c r="N3" s="8">
-        <f>L3-$L$8</f>
-        <v>8.7100000000000011E-2</v>
+        <f>(L3-$L$8)*$A$14</f>
+        <v>87.100000000000009</v>
       </c>
       <c r="O3" s="9">
         <f>N3/$B$13</f>
-        <v>1.957303370786517E-3</v>
+        <v>1.9573033707865171</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -656,12 +1584,12 @@
         <v>344002.815</v>
       </c>
       <c r="D4" s="8">
-        <f>B4-$B$8</f>
-        <v>0.11599999999999999</v>
+        <f t="shared" ref="D4:D7" si="1">(B4-$B$8)*$A$14</f>
+        <v>115.99999999999999</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E8" si="1">D4/$B$11</f>
-        <v>2.8431372549019606E-3</v>
+        <f t="shared" ref="E4:E8" si="2">D4/$B$11</f>
+        <v>2.8431372549019605</v>
       </c>
       <c r="F4" s="7">
         <v>3.5</v>
@@ -670,16 +1598,16 @@
         <v>0.1052</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H8" si="2">F4*$B$10</f>
+        <f t="shared" ref="H4:H8" si="3">F4*$B$10</f>
         <v>343022.75</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I8" si="3">G4-$G$8</f>
-        <v>9.5700000000000007E-2</v>
+        <f t="shared" ref="I4:I8" si="4">(G4-$G$8)*$A$14</f>
+        <v>95.7</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J8" si="4">I4/$B$12</f>
-        <v>2.230769230769231E-3</v>
+        <f t="shared" ref="J4:J8" si="5">I4/$B$12</f>
+        <v>2.2307692307692308</v>
       </c>
       <c r="K4" s="7">
         <v>3.5</v>
@@ -688,16 +1616,16 @@
         <v>8.72E-2</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M8" si="5">K4*$B$10</f>
+        <f t="shared" ref="M4:M8" si="6">K4*$B$10</f>
         <v>343022.75</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="N4:N8" si="6">L4-$L$8</f>
-        <v>7.7200000000000005E-2</v>
+        <f t="shared" ref="N4:N7" si="7">(L4-$L$8)*$A$14</f>
+        <v>77.2</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O8" si="7">N4/$B$13</f>
-        <v>1.7348314606741575E-3</v>
+        <f t="shared" ref="O4:O8" si="8">N4/$B$13</f>
+        <v>1.7348314606741573</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -712,12 +1640,12 @@
         <v>264617.55</v>
       </c>
       <c r="D5" s="8">
-        <f>B5-$B$8</f>
-        <v>7.909999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>79.099999999999994</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9387254901960783E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.9387254901960784</v>
       </c>
       <c r="F5" s="7">
         <v>2.7</v>
@@ -726,16 +1654,16 @@
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>264617.55</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="3"/>
-        <v>6.8600000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>68.600000000000009</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="4"/>
-        <v>1.5990675990675994E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.5990675990675993</v>
       </c>
       <c r="K5" s="7">
         <v>2.7</v>
@@ -744,16 +1672,16 @@
         <v>6.59E-2</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>264617.55</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="6"/>
-        <v>5.5899999999999998E-2</v>
+        <f t="shared" si="7"/>
+        <v>55.9</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" si="7"/>
-        <v>1.2561797752808988E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.2561797752808987</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -768,12 +1696,12 @@
         <v>196013</v>
       </c>
       <c r="D6" s="8">
-        <f>B6-$B$8</f>
-        <v>5.2299999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>52.3</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2818627450980392E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2818627450980393</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -782,16 +1710,16 @@
         <v>5.21E-2</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196013</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="3"/>
-        <v>4.2599999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>42.6</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9300699300699309E-4</v>
+        <f t="shared" si="5"/>
+        <v>0.99300699300699302</v>
       </c>
       <c r="K6" s="7">
         <v>2</v>
@@ -800,16 +1728,16 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>196013</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" si="6"/>
-        <v>3.1E-2</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="7"/>
-        <v>6.9662921348314602E-4</v>
+        <f t="shared" si="8"/>
+        <v>0.6966292134831461</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,12 +1752,12 @@
         <v>98006.5</v>
       </c>
       <c r="D7" s="8">
-        <f>B7-$B$8</f>
-        <v>2.1100000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>21.1</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="1"/>
-        <v>5.1715686274509808E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.51715686274509809</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -838,16 +1766,16 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98006.5</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="3"/>
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="4"/>
-        <v>3.0303030303030303E-4</v>
+        <f t="shared" si="5"/>
+        <v>0.30303030303030304</v>
       </c>
       <c r="K7" s="7">
         <v>1</v>
@@ -856,16 +1784,16 @@
         <v>1.89E-2</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98006.5</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="6"/>
-        <v>8.8999999999999999E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.9</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" si="8"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -884,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="10">
@@ -894,17 +1822,17 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J8" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="10">
         <v>0</v>
       </c>
@@ -912,15 +1840,15 @@
         <v>0.01</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="N8" s="8">
+        <f t="shared" ref="N4:N8" si="9">L8-$L$8</f>
+        <v>0</v>
+      </c>
       <c r="O8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -956,6 +1884,269 @@
       <c r="B13">
         <f>(44.1+44.9)/2</f>
         <v>44.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F43" s="8">
+        <f>(E43-$B$8)*$A$14</f>
+        <v>135</v>
+      </c>
+      <c r="G43" s="9">
+        <f>F43/$B$11</f>
+        <v>3.3088235294117649</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J43" s="8">
+        <f>(I43-$G$8)*$A$14</f>
+        <v>107.50000000000001</v>
+      </c>
+      <c r="K43" s="9">
+        <f>J43/$B$12</f>
+        <v>2.5058275058275061</v>
+      </c>
+      <c r="L43" s="7">
+        <v>4</v>
+      </c>
+      <c r="M43" s="8">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="N43" s="8">
+        <f>(M43-$L$8)*$A$14</f>
+        <v>87.100000000000009</v>
+      </c>
+      <c r="O43" s="9">
+        <f>N43/$B$13</f>
+        <v>1.9573033707865171</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="F44" s="8">
+        <f>(E44-$B$8)*$A$14</f>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" ref="G44:G47" si="10">F44/$B$11</f>
+        <v>2.8431372549019605</v>
+      </c>
+      <c r="H44" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.1052</v>
+      </c>
+      <c r="J44" s="8">
+        <f>(I44-$G$8)*$A$14</f>
+        <v>95.7</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" ref="K44:K47" si="11">J44/$B$12</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="L44" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M44" s="8">
+        <v>8.72E-2</v>
+      </c>
+      <c r="N44" s="8">
+        <f>(M44-$L$8)*$A$14</f>
+        <v>77.2</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" ref="O44:O47" si="12">N44/$B$13</f>
+        <v>1.7348314606741573</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E45" s="8">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F45" s="8">
+        <f>(E45-$B$8)*$A$14</f>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="10"/>
+        <v>1.9387254901960784</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="I45" s="8">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="J45" s="8">
+        <f>(I45-$G$8)*$A$14</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="11"/>
+        <v>1.5990675990675993</v>
+      </c>
+      <c r="L45" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="M45" s="8">
+        <v>6.59E-2</v>
+      </c>
+      <c r="N45" s="8">
+        <f>(M45-$L$8)*$A$14</f>
+        <v>55.9</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="12"/>
+        <v>1.2561797752808987</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="F46" s="8">
+        <f>(E46-$B$8)*$A$14</f>
+        <v>52.3</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="10"/>
+        <v>1.2818627450980393</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="12">
+        <v>5.21E-2</v>
+      </c>
+      <c r="J46" s="8">
+        <f>(I46-$G$8)*$A$14</f>
+        <v>42.6</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="11"/>
+        <v>0.99300699300699302</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2</v>
+      </c>
+      <c r="M46" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N46" s="8">
+        <f>(M46-$L$8)*$A$14</f>
+        <v>31</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="12"/>
+        <v>0.6966292134831461</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <f>(E47-$B$8)*$A$14</f>
+        <v>21.1</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="10"/>
+        <v>0.51715686274509809</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="J47" s="8">
+        <f>(I47-$G$8)*$A$14</f>
+        <v>13</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="11"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+      <c r="M47" s="12">
+        <v>1.89E-2</v>
+      </c>
+      <c r="N47" s="8">
+        <f>(M47-$L$8)*$A$14</f>
+        <v>8.9</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -966,5 +2157,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A9B0C-F53C-4616-A77F-BF0DB6CB8F43}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6973AF-05AA-4E6C-937E-26536F651EFD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>dT</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>k70</t>
+  </si>
+  <si>
+    <t>std_error1</t>
+  </si>
+  <si>
+    <t>std_error2</t>
+  </si>
+  <si>
+    <t>std_error3</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,11 +174,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -265,6 +286,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1568849625504129"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -347,6 +374,254 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5616-4073-8260-F2404FFDAE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5058275058275061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5990675990675993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99300699300699302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30303030303030304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5616-4073-8260-F2404FFDAE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9573033707865171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7348314606741573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2561797752808987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6966292134831461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5616-4073-8260-F2404FFDAE98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,16 +1372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1433,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068A1463-733B-43B5-A257-228586368D6E}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,6 +1719,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1706,7 +1982,7 @@
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>5.21E-2</v>
       </c>
       <c r="H6" s="8">
@@ -1724,7 +2000,7 @@
       <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M6" s="8">
@@ -1762,7 +2038,7 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="H7" s="8">
@@ -1780,7 +2056,7 @@
       <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>1.89E-2</v>
       </c>
       <c r="M7" s="8">
@@ -1803,7 +2079,7 @@
       <c r="B8" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1811,7 +2087,7 @@
         <f>B8-$B$8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1821,15 +2097,15 @@
       <c r="G8" s="11">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1839,15 +2115,15 @@
       <c r="L8" s="11">
         <v>0.01</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="11">
         <f t="shared" ref="N4:N8" si="9">L8-$L$8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1867,6 +2143,13 @@
       <c r="B11">
         <v>40.799999999999997</v>
       </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f>STEYX(E3:E7,A3:A7)</f>
+        <v>9.1154156265021699E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1876,6 +2159,13 @@
         <f>(42.5+43.3)/2</f>
         <v>42.9</v>
       </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f>STEYX(J3:J7,F3:F7)</f>
+        <v>5.4021006256213193E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1885,6 +2175,13 @@
         <f>(44.1+44.9)/2</f>
         <v>44.5</v>
       </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f>STEYX(O3:O7,K3:K7)</f>
+        <v>6.7379289393168215E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1892,262 +2189,88 @@
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D43" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F43" s="8">
-        <f>(E43-$B$8)*$A$14</f>
-        <v>135</v>
-      </c>
-      <c r="G43" s="9">
-        <f>F43/$B$11</f>
-        <v>3.3088235294117649</v>
-      </c>
-      <c r="H43" s="7">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J43" s="8">
-        <f>(I43-$G$8)*$A$14</f>
-        <v>107.50000000000001</v>
-      </c>
-      <c r="K43" s="9">
-        <f>J43/$B$12</f>
-        <v>2.5058275058275061</v>
-      </c>
-      <c r="L43" s="7">
-        <v>4</v>
-      </c>
-      <c r="M43" s="8">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="N43" s="8">
-        <f>(M43-$L$8)*$A$14</f>
-        <v>87.100000000000009</v>
-      </c>
-      <c r="O43" s="9">
-        <f>N43/$B$13</f>
-        <v>1.9573033707865171</v>
-      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="7">
-        <v>3.51</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0.121</v>
-      </c>
-      <c r="F44" s="8">
-        <f>(E44-$B$8)*$A$14</f>
-        <v>115.99999999999999</v>
-      </c>
-      <c r="G44" s="9">
-        <f t="shared" ref="G44:G47" si="10">F44/$B$11</f>
-        <v>2.8431372549019605</v>
-      </c>
-      <c r="H44" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0.1052</v>
-      </c>
-      <c r="J44" s="8">
-        <f>(I44-$G$8)*$A$14</f>
-        <v>95.7</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" ref="K44:K47" si="11">J44/$B$12</f>
-        <v>2.2307692307692308</v>
-      </c>
-      <c r="L44" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="M44" s="8">
-        <v>8.72E-2</v>
-      </c>
-      <c r="N44" s="8">
-        <f>(M44-$L$8)*$A$14</f>
-        <v>77.2</v>
-      </c>
-      <c r="O44" s="9">
-        <f t="shared" ref="O44:O47" si="12">N44/$B$13</f>
-        <v>1.7348314606741573</v>
-      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
     </row>
     <row r="45" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D45" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="E45" s="8">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="F45" s="8">
-        <f>(E45-$B$8)*$A$14</f>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="G45" s="9">
-        <f t="shared" si="10"/>
-        <v>1.9387254901960784</v>
-      </c>
-      <c r="H45" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="I45" s="8">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="J45" s="8">
-        <f>(I45-$G$8)*$A$14</f>
-        <v>68.600000000000009</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" si="11"/>
-        <v>1.5990675990675993</v>
-      </c>
-      <c r="L45" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="M45" s="8">
-        <v>6.59E-2</v>
-      </c>
-      <c r="N45" s="8">
-        <f>(M45-$L$8)*$A$14</f>
-        <v>55.9</v>
-      </c>
-      <c r="O45" s="9">
-        <f t="shared" si="12"/>
-        <v>1.2561797752808987</v>
-      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="8">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="F46" s="8">
-        <f>(E46-$B$8)*$A$14</f>
-        <v>52.3</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="10"/>
-        <v>1.2818627450980393</v>
-      </c>
-      <c r="H46" s="7">
-        <v>2</v>
-      </c>
-      <c r="I46" s="12">
-        <v>5.21E-2</v>
-      </c>
-      <c r="J46" s="8">
-        <f>(I46-$G$8)*$A$14</f>
-        <v>42.6</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="11"/>
-        <v>0.99300699300699302</v>
-      </c>
-      <c r="L46" s="7">
-        <v>2</v>
-      </c>
-      <c r="M46" s="12">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N46" s="8">
-        <f>(M46-$L$8)*$A$14</f>
-        <v>31</v>
-      </c>
-      <c r="O46" s="9">
-        <f t="shared" si="12"/>
-        <v>0.6966292134831461</v>
-      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
     </row>
     <row r="47" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="F47" s="8">
-        <f>(E47-$B$8)*$A$14</f>
-        <v>21.1</v>
-      </c>
-      <c r="G47" s="9">
-        <f t="shared" si="10"/>
-        <v>0.51715686274509809</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="12">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="J47" s="8">
-        <f>(I47-$G$8)*$A$14</f>
-        <v>13</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="11"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="L47" s="7">
-        <v>1</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1.89E-2</v>
-      </c>
-      <c r="N47" s="8">
-        <f>(M47-$L$8)*$A$14</f>
-        <v>8.9</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6973AF-05AA-4E6C-937E-26536F651EFD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF2B8D-9302-46F1-B7E2-E3EC0C7F92EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>dT</t>
   </si>
@@ -64,6 +64,51 @@
   </si>
   <si>
     <t>std_error3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>T_0</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>T=24</t>
+  </si>
+  <si>
+    <t>dm1</t>
+  </si>
+  <si>
+    <t>dm2</t>
+  </si>
+  <si>
+    <t>dm3</t>
   </si>
 </sst>
 </file>
@@ -1372,16 +1417,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1708,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068A1463-733B-43B5-A257-228586368D6E}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,6 +1765,8 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2186,6 +2233,133 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <f>0.9242/$B$10</f>
+        <v>9.4299867865906848E-6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <f>H14*H11</f>
+        <v>8.5958248912197709E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <f>0.7537/$B$10</f>
+        <v>7.6903062551973589E-6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J16" si="10">H15*H12</f>
+        <v>4.1543808232421197E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <f>0.6071/$B$10</f>
+        <v>6.1944871003453853E-6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <f>H16*H13</f>
+        <v>4.1738013897641916E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>(5/2+1)*$B$16</f>
+        <v>28.455000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>273.16000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>$B$16*$B$17*($H$14-$H$15)/(1/($B$18+24)-1/($B$18+50))</f>
+        <v>1.4864600445913863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>$B$17*($H$14*($B$18+24)-$H$15*($B$18+50))/(50-24)</f>
+        <v>3.4694908340066971E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f>(2*$B$21)/($B$16*$B$22)</f>
+        <v>1053.9668360370486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <f>$B$21/($H$14-$H$15)*SQRT($J$14^2+$J$15^2)</f>
+        <v>0.81574633274587238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f>$B$17*SQRT($J$14*($B$18+24)^2-$J$15*($B$18+50)^2)/(50-24)</f>
+        <v>0.19735892053220433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.25">

--- a/lab2.1.6/data.xlsx
+++ b/lab2.1.6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Labs\sem_2\lab2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF2B8D-9302-46F1-B7E2-E3EC0C7F92EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5817FC-D338-4539-8E3C-3529FC15C53D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8115" xr2:uid="{98CFB01A-8ECD-4842-9E40-AD4D8241F1E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>dT</t>
   </si>
@@ -99,9 +99,6 @@
     <t>m3</t>
   </si>
   <si>
-    <t>T=24</t>
-  </si>
-  <si>
     <t>dm1</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>dm3</t>
+  </si>
+  <si>
+    <t>T=24;70</t>
+  </si>
+  <si>
+    <t>T=24;50</t>
+  </si>
+  <si>
+    <t>T=50;70</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,7 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1417,16 +1426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1754,7 +1763,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2038,7 @@
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="15">
         <v>5.21E-2</v>
       </c>
       <c r="H6" s="8">
@@ -2047,7 +2056,7 @@
       <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="15">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M6" s="8">
@@ -2085,7 +2094,7 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="15">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="H7" s="8">
@@ -2103,7 +2112,7 @@
       <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="15">
         <v>1.89E-2</v>
       </c>
       <c r="M7" s="8">
@@ -2176,191 +2185,264 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>98006.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>40.799999999999997</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="13">
         <f>STEYX(E3:E7,A3:A7)</f>
         <v>9.1154156265021699E-2</v>
       </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <f>(42.5+43.3)/2</f>
         <v>42.9</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <f>STEYX(J3:J7,F3:F7)</f>
         <v>5.4021006256213193E-2</v>
       </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <f>(44.1+44.9)/2</f>
         <v>44.5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <f>STEYX(O3:O7,K3:K7)</f>
         <v>6.7379289393168215E-2</v>
       </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>1000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>1000000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <f>0.9242/$B$10</f>
         <v>9.4299867865906848E-6</v>
       </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9">
         <f>H14*H11</f>
         <v>8.5958248912197709E-7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <f>0.7537/$B$10</f>
         <v>7.6903062551973589E-6</v>
       </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" ref="J15:J16" si="10">H15*H12</f>
         <v>4.1543808232421197E-7</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="11">
         <f>0.6071/$B$10</f>
         <v>6.1944871003453853E-6</v>
       </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="12">
         <f>H16*H13</f>
         <v>4.1738013897641916E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <f>(5/2+1)*$B$16</f>
         <v>28.455000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>273.16000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <f>$B$16*$B$17*($H$14-$H$15)/(1/($B$18+24)-1/($B$18+50))</f>
         <v>1.4864600445913863</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="8">
+        <f>$B$16*$B$17*($H$14-$H$16)/(1/($B$18+24)-1/($B$18+70))</f>
+        <v>1.6592799856537765</v>
+      </c>
+      <c r="D21" s="9">
+        <f>$B$16*$B$17*($H$15-$H$16)/(1/($B$18+50)-1/($B$18+70))</f>
+        <v>1.9187239157502258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <f>$B$17*($H$14*($B$18+24)-$H$15*($B$18+50))/(50-24)</f>
-        <v>3.4694908340066971E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="8">
+        <f>$B$17*($H$14*($B$18+24)-$H$15*($B$18+50))/(50-24)*$B$14</f>
+        <v>346.94908340066974</v>
+      </c>
+      <c r="C22" s="8">
+        <f>$B$17*($H$14*($B$18+24)-$H$16*($B$18+70))/(70-24)*$B$14</f>
+        <v>418.48315703550298</v>
+      </c>
+      <c r="D22" s="9">
+        <f>$B$17*($H$15*($B$18+50)-$H$16*($B$18+70))/(70-50)*$B$14</f>
+        <v>511.47745276078609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
-        <f>(2*$B$21)/($B$16*$B$22)</f>
+      <c r="B23" s="8">
+        <f>(2*$B$21)/($B$16*$B$22)*$B$14</f>
         <v>1053.9668360370486</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="8">
+        <f>(2*$C$21)/($B$16*$C$22)*$B$14</f>
+        <v>975.39638448527307</v>
+      </c>
+      <c r="D23" s="9">
+        <f>(2*$D$21)/($B$16*$D$22)*$B$14</f>
+        <v>922.83794883788357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <f>$B$21/($H$14-$H$15)*SQRT($J$14^2+$J$15^2)</f>
         <v>0.81574633274587238</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C24" s="8">
+        <f>$C$21/($H$14-$H$16)*SQRT($J$14^2+$J$16^2)</f>
+        <v>0.49004356025263235</v>
+      </c>
+      <c r="D24" s="9">
+        <f>$D$21/($H$15-$H$16)*SQRT($J$15^2+$J$16^2)</f>
+        <v>0.75538751060136633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25">
-        <f>$B$17*SQRT($J$14*($B$18+24)^2-$J$15*($B$18+50)^2)/(50-24)</f>
-        <v>0.19735892053220433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="8">
+        <f>$B$17*SQRT(($J$14*($B$18+24))^2-($J$15*($B$18+50))^2)/(50-24)*$B$14</f>
+        <v>237.82604014545231</v>
+      </c>
+      <c r="C25" s="8">
+        <f>$B$17*SQRT(($J$14*($B$18+24))^2-($J$16*($B$18+70))^2)/(70-24)*$B$14</f>
+        <v>130.83074830287291</v>
+      </c>
+      <c r="D25" s="9">
+        <f>$B$17*SQRT(-($J$15*($B$18+50))^2+($J$16*($B$18+70))^2)/(70-50)*$B$14</f>
+        <v>279.30205383258425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B26" s="8">
+        <f>B23*(SQRT(($B$24/B21)^2+(B25/B22)^2))</f>
+        <v>925.47944567614854</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C23*(SQRT(($C$24/C21)^2+(C25/C22)^2))</f>
+        <v>419.48945803380911</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D23*(SQRT(($D$24/D21)^2+(D25/D22)^2))</f>
+        <v>621.24571582552778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="5"/>
@@ -2424,11 +2506,11 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="13"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
     </row>
@@ -2438,11 +2520,11 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="13"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
     </row>
